--- a/Characters in Nicknames/CharactersinNicknames.xlsx
+++ b/Characters in Nicknames/CharactersinNicknames.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Character</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of instances</t>
+    <t xml:space="preserve">Number of occurrences</t>
   </si>
   <si>
     <t xml:space="preserve">SUM</t>
@@ -379,8 +379,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Characters in Nicknames/CharactersinNicknames.xlsx
+++ b/Characters in Nicknames/CharactersinNicknames.xlsx
@@ -20,96 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">Character</t>
   </si>
   <si>
+    <t xml:space="preserve">Majuscule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miniuscule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D/d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E/e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J/j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K/k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q/q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R/r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U/u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V/v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X/x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z/z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Í/í</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E/e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F/f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G/g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J/j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K/k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q/q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R/r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U/u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V/v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X/x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z/z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Í/í</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -152,9 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -263,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,19 +290,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,15 +391,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -395,331 +410,537 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>913</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <f aca="false">SUM(C2,B2)</f>
         <v>1005</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">SUM(B2:B28,B30:B39,B41:B43)</f>
+      <c r="F2" s="4" t="n">
+        <f aca="false">SUM(D2:D28,B31:B40,B42:B44)</f>
         <v>11385</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">SUM(C3,B3)</f>
         <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">SUM(C4,B4)</f>
         <v>324</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">SUM(C5,B5)</f>
         <v>324</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>899</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">SUM(C6,B6)</f>
         <v>947</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">SUM(C7,B7)</f>
         <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">SUM(C8,B8)</f>
         <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">SUM(C9,B9)</f>
         <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>675</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">SUM(C10,B10)</f>
         <v>719</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">SUM(C11,B11)</f>
         <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>302</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">SUM(C12,B12)</f>
         <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>402</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">SUM(C13,B13)</f>
         <v>467</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>293</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">SUM(C14,B14)</f>
         <v>399</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">SUM(C15,B15)</f>
         <v>670</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>780</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">SUM(C16,B16)</f>
         <v>828</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">SUM(C17,B17)</f>
         <v>250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">SUM(C18,B18)</f>
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>595</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">SUM(C19,B19)</f>
         <v>673</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>490</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">SUM(C20,B20)</f>
         <v>651</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>417</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">SUM(C21,B21)</f>
         <v>524</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>388</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <f aca="false">SUM(C22,B22)</f>
         <v>405</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">SUM(C23,B23)</f>
         <v>106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">SUM(C24,B24)</f>
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">SUM(C25,B25)</f>
         <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <f aca="false">SUM(C26,B26)</f>
         <v>295</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <f aca="false">SUM(C27,B27)</f>
         <v>196</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="D28" s="8" t="n">
+        <f aca="false">SUM(C28,B28)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="n">
         <v>90</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>93</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="n">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="n">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="n">
+    <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="n">
+    <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="n">
         <v>4</v>
       </c>
     </row>
